--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790" tabRatio="111"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,157 +19,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Adress</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>ilce</t>
-  </si>
-  <si>
-    <t>mahalle</t>
-  </si>
-  <si>
-    <t>il</t>
-  </si>
-  <si>
-    <t>profileImage  image</t>
-  </si>
-  <si>
-    <t>CreatedOn      datetime</t>
-  </si>
-  <si>
-    <t>userid(FK-USER)            int(10)</t>
-  </si>
-  <si>
-    <t>CreatedOn     datetime</t>
-  </si>
-  <si>
-    <t>site_image        image</t>
-  </si>
-  <si>
-    <t>site_id           int(10)</t>
-  </si>
-  <si>
-    <t>user_id         int(10)</t>
-  </si>
-  <si>
-    <t>comment_id        int(10)</t>
-  </si>
-  <si>
-    <t>user_id(FK-USER)    int(10)</t>
-  </si>
-  <si>
-    <t>site_id(FK-SİTE)       int(10)</t>
-  </si>
-  <si>
     <t>createdOn         datetime</t>
   </si>
   <si>
-    <t>adress_id   int (10)</t>
-  </si>
-  <si>
-    <t>il_id(FK-il)          int (10)</t>
-  </si>
-  <si>
-    <t>ilce_id(FK-ilce)        int (10)</t>
-  </si>
-  <si>
-    <t>mahalle_id(FK-mahalle)   int (10)</t>
-  </si>
-  <si>
-    <t>guvenlik     float(5)</t>
-  </si>
-  <si>
     <t>mainScore        float(5)</t>
   </si>
   <si>
-    <t>aktivite_alani       float(5)</t>
-  </si>
-  <si>
-    <t>yönetim_memnuniyeti  float(5)</t>
-  </si>
-  <si>
-    <t>il_id   int(10)</t>
-  </si>
-  <si>
-    <t>ilce_id   int(10)</t>
-  </si>
-  <si>
-    <t>il_id(FK-il)  int(10)</t>
-  </si>
-  <si>
-    <t>mahalle_id   int(10)</t>
-  </si>
-  <si>
-    <t>il_id(FK-il)     int(10)</t>
-  </si>
-  <si>
-    <t>ilce_id(FK-ilce)   int(10)</t>
-  </si>
-  <si>
-    <t>adress_id(FK-ADRESS)   int(10)</t>
-  </si>
-  <si>
-    <t>scores_id   int(10)</t>
-  </si>
-  <si>
-    <t>user_id(FK-USER)     int(10)</t>
-  </si>
-  <si>
-    <t>site_id(FK-SITE)     int(10)</t>
-  </si>
-  <si>
-    <t>password     nvarchar(15)</t>
-  </si>
-  <si>
-    <t>email         nvarchar(60)</t>
-  </si>
-  <si>
-    <t>username   nvarchar(25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siteAdi            nvarchar(100)                 </t>
-  </si>
-  <si>
-    <t>iladi   nvarchar(50)</t>
-  </si>
-  <si>
-    <t>ilceadi   nvarchar(50)</t>
-  </si>
-  <si>
-    <t>mahalleadi   nvarchar(100)</t>
-  </si>
-  <si>
     <t>IsAdmin          bit</t>
   </si>
   <si>
     <t>IsActive           bit</t>
   </si>
   <si>
-    <t>ActiveGuid     unique_idetyfier</t>
-  </si>
-  <si>
     <t>text                    nvarchar(10000)</t>
+  </si>
+  <si>
+    <t>email         nvarchar(60)  Unique</t>
+  </si>
+  <si>
+    <t>profileImage  ByteArray</t>
+  </si>
+  <si>
+    <t>user_id         int(10) PK Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siteName         nvarchar(100)                 </t>
+  </si>
+  <si>
+    <t>createdOn     datetime</t>
+  </si>
+  <si>
+    <t>siteImage        ByteArray</t>
+  </si>
+  <si>
+    <t>createdOn      datetime</t>
+  </si>
+  <si>
+    <t>user_id   int(10) PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id          int(10) (FK-user_id)   </t>
+  </si>
+  <si>
+    <t>user_id(FK-user_id)    int(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password     nvarchar(60) </t>
+  </si>
+  <si>
+    <t>username    nvarchar(25) Unique</t>
+  </si>
+  <si>
+    <t>place_id           int(10) PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place           </t>
+  </si>
+  <si>
+    <t>yer_tip_id     int(10)  (FK - Place description)</t>
+  </si>
+  <si>
+    <t>comment_id    PK    int(10)</t>
+  </si>
+  <si>
+    <t>place_id(FK-site_id)       int(10)</t>
+  </si>
+  <si>
+    <t>place_id  int(10) PK</t>
+  </si>
+  <si>
+    <t>question_id  int(10) PK</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>score     float(5)</t>
+  </si>
+  <si>
+    <t>IsActive     bit</t>
+  </si>
+  <si>
+    <t>Place_Description</t>
+  </si>
+  <si>
+    <t>place_id int(10) PK</t>
+  </si>
+  <si>
+    <t>place_name    nvarchar(50)</t>
+  </si>
+  <si>
+    <t>parent_id  int(10)</t>
+  </si>
+  <si>
+    <t>Place_Type</t>
+  </si>
+  <si>
+    <t>place_type  nvarchar(10)</t>
+  </si>
+  <si>
+    <t>IsActive    bit</t>
+  </si>
+  <si>
+    <t>Question_Definiton</t>
+  </si>
+  <si>
+    <t>question_id int(10) PK</t>
+  </si>
+  <si>
+    <t>question_name nvarchar(50)</t>
+  </si>
+  <si>
+    <t>place_type_id int(2) PK</t>
+  </si>
+  <si>
+    <t>place_type_id  int(2)  FK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,29 +157,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,15 +186,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,143 +475,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,42 +607,43 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -51,15 +51,9 @@
     <t>user_id         int(10) PK Unique</t>
   </si>
   <si>
-    <t xml:space="preserve">siteName         nvarchar(100)                 </t>
-  </si>
-  <si>
     <t>createdOn     datetime</t>
   </si>
   <si>
-    <t>siteImage        ByteArray</t>
-  </si>
-  <si>
     <t>createdOn      datetime</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t xml:space="preserve">Place           </t>
   </si>
   <si>
-    <t>yer_tip_id     int(10)  (FK - Place description)</t>
-  </si>
-  <si>
     <t>comment_id    PK    int(10)</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>place_type_id  int(2)  FK</t>
+  </si>
+  <si>
+    <t>place_id    int(10)  (FK - Place description)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placeName         nvarchar(100)                 </t>
+  </si>
+  <si>
+    <t>placeImage        ByteArray</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,22 +498,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -521,45 +521,45 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,39 +567,39 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -613,18 +613,18 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>User</t>
   </si>
@@ -30,9 +30,6 @@
     <t>createdOn         datetime</t>
   </si>
   <si>
-    <t>mainScore        float(5)</t>
-  </si>
-  <si>
     <t>IsAdmin          bit</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t xml:space="preserve">user_id          int(10) (FK-user_id)   </t>
   </si>
   <si>
-    <t>user_id(FK-user_id)    int(10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">password     nvarchar(60) </t>
   </si>
   <si>
@@ -78,12 +72,6 @@
     <t xml:space="preserve">Place           </t>
   </si>
   <si>
-    <t>comment_id    PK    int(10)</t>
-  </si>
-  <si>
-    <t>place_id(FK-site_id)       int(10)</t>
-  </si>
-  <si>
     <t>place_id  int(10) PK</t>
   </si>
   <si>
@@ -99,24 +87,9 @@
     <t>IsActive     bit</t>
   </si>
   <si>
-    <t>Place_Description</t>
-  </si>
-  <si>
-    <t>place_id int(10) PK</t>
-  </si>
-  <si>
-    <t>place_name    nvarchar(50)</t>
-  </si>
-  <si>
     <t>parent_id  int(10)</t>
   </si>
   <si>
-    <t>Place_Type</t>
-  </si>
-  <si>
-    <t>place_type  nvarchar(10)</t>
-  </si>
-  <si>
     <t>IsActive    bit</t>
   </si>
   <si>
@@ -129,19 +102,40 @@
     <t>question_name nvarchar(50)</t>
   </si>
   <si>
-    <t>place_type_id int(2) PK</t>
-  </si>
-  <si>
-    <t>place_type_id  int(2)  FK</t>
-  </si>
-  <si>
-    <t>place_id    int(10)  (FK - Place description)</t>
-  </si>
-  <si>
     <t xml:space="preserve">placeName         nvarchar(100)                 </t>
   </si>
   <si>
     <t>placeImage        ByteArray</t>
+  </si>
+  <si>
+    <t>Adress_Description</t>
+  </si>
+  <si>
+    <t>adress_desc_id int(10) PK</t>
+  </si>
+  <si>
+    <t>adress_name    nvarchar(50)</t>
+  </si>
+  <si>
+    <t>adress_type_id  int(2)  FK</t>
+  </si>
+  <si>
+    <t>Adress_Type</t>
+  </si>
+  <si>
+    <t>adress_type_id int(2) PK</t>
+  </si>
+  <si>
+    <t>adress_type  nvarchar(10)</t>
+  </si>
+  <si>
+    <t>adress_desc_id    int(10)  (FK - Adress_Description)</t>
+  </si>
+  <si>
+    <t>place_id   PK    int(10)</t>
+  </si>
+  <si>
+    <t>user_id  PK    int(10)</t>
   </si>
 </sst>
 </file>
@@ -478,14 +472,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="31.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
@@ -498,152 +492,146 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>User</t>
   </si>
@@ -461,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -619,6 +619,9 @@
       </c>
       <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>user_id  PK    int(10)</t>
+  </si>
+  <si>
+    <t>Question_Type</t>
+  </si>
+  <si>
+    <t>question_type_id int FK</t>
+  </si>
+  <si>
+    <t>question_type_id int PK</t>
+  </si>
+  <si>
+    <t>question_type nvharchar(50)</t>
+  </si>
+  <si>
+    <t>Combobox_Answer</t>
+  </si>
+  <si>
+    <t>question_answer_id int PK</t>
+  </si>
+  <si>
+    <t>question_id int(10) FK</t>
+  </si>
+  <si>
+    <t>question_answer nvharchar(50)</t>
+  </si>
+  <si>
+    <t>IsActive bit</t>
   </si>
 </sst>
 </file>
@@ -461,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +512,11 @@
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,8 +538,14 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -532,8 +567,14 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -552,11 +593,17 @@
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,10 +623,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -595,8 +648,14 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -613,7 +672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -624,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -632,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>User</t>
   </si>
@@ -163,6 +163,66 @@
   </si>
   <si>
     <t>IsActive bit</t>
+  </si>
+  <si>
+    <t>Place_Statistics</t>
+  </si>
+  <si>
+    <t>statistic_id int PK</t>
+  </si>
+  <si>
+    <t>male_count int</t>
+  </si>
+  <si>
+    <t>female_count int</t>
+  </si>
+  <si>
+    <t>otherSex_count int</t>
+  </si>
+  <si>
+    <t>primarySchool_count int</t>
+  </si>
+  <si>
+    <t>middleSchool_count int</t>
+  </si>
+  <si>
+    <t>highSchool_count int</t>
+  </si>
+  <si>
+    <t>degree_count int</t>
+  </si>
+  <si>
+    <t>masterDegree_count int</t>
+  </si>
+  <si>
+    <t>married_count int</t>
+  </si>
+  <si>
+    <t>single_count int</t>
+  </si>
+  <si>
+    <t>divorced_count int</t>
+  </si>
+  <si>
+    <t>average_rent int</t>
+  </si>
+  <si>
+    <t>widow_count int</t>
+  </si>
+  <si>
+    <t>age_lower_18 int</t>
+  </si>
+  <si>
+    <t>age_between_18-34 int</t>
+  </si>
+  <si>
+    <t>age_between_34-55 int</t>
+  </si>
+  <si>
+    <t>age_upper_55 int</t>
+  </si>
+  <si>
+    <t>place_id int FK</t>
   </si>
 </sst>
 </file>
@@ -488,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +574,10 @@
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,8 +605,11 @@
       <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -573,8 +637,11 @@
       <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -602,8 +669,11 @@
       <c r="J3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -631,8 +701,11 @@
       <c r="J4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -654,8 +727,11 @@
       <c r="J5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -671,8 +747,11 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -682,18 +761,82 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/veritabani_taslagi/database_example.xlsx
+++ b/veritabani_taslagi/database_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>User</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>place_id int FK</t>
+  </si>
+  <si>
+    <t>Comment_Log</t>
+  </si>
+  <si>
+    <t>toxic_type      int(10)</t>
+  </si>
+  <si>
+    <t>Survey_Log</t>
+  </si>
+  <si>
+    <t>toxic_type     int(10)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,9 +587,11 @@
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
     <col min="11" max="11" width="32.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,8 +622,14 @@
       <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -640,8 +660,14 @@
       <c r="K2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -672,8 +698,14 @@
       <c r="K3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -704,8 +736,14 @@
       <c r="K4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -730,8 +768,14 @@
       <c r="K5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -750,8 +794,14 @@
       <c r="K6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -764,8 +814,14 @@
       <c r="K7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -775,8 +831,11 @@
       <c r="K8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -784,37 +843,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>61</v>
       </c>
